--- a/Code/Results/Cases/Case_5_85/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_85/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.072310285195613</v>
+        <v>1.543145160119082</v>
       </c>
       <c r="C2">
-        <v>1.19474901306512</v>
+        <v>0.6045642687506074</v>
       </c>
       <c r="D2">
-        <v>0.01386085739507514</v>
+        <v>0.05575800697469191</v>
       </c>
       <c r="E2">
-        <v>0.03729549267194088</v>
+        <v>0.09227724228551359</v>
       </c>
       <c r="F2">
-        <v>2.142235885727118</v>
+        <v>2.705411538345544</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.883592495072044</v>
+        <v>1.262895537521509</v>
       </c>
       <c r="J2">
-        <v>0.07232766579167205</v>
+        <v>0.1479057805073616</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8309436665952958</v>
+        <v>0.5724660458667543</v>
       </c>
       <c r="N2">
-        <v>0.8846143727883629</v>
+        <v>1.799457959988786</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.660089617366225</v>
+        <v>1.440653581443883</v>
       </c>
       <c r="C3">
-        <v>1.034353258451119</v>
+        <v>0.565724447271748</v>
       </c>
       <c r="D3">
-        <v>0.01299990138848983</v>
+        <v>0.05560136927945081</v>
       </c>
       <c r="E3">
-        <v>0.03581680997870684</v>
+        <v>0.0923741770050075</v>
       </c>
       <c r="F3">
-        <v>1.967909404029427</v>
+        <v>2.681179437664213</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.8310863904842805</v>
+        <v>1.258904852297867</v>
       </c>
       <c r="J3">
-        <v>0.06958888804857466</v>
+        <v>0.148147194015344</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7248785813616436</v>
+        <v>0.5481573466469456</v>
       </c>
       <c r="N3">
-        <v>0.9364346063927016</v>
+        <v>1.819625327823573</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.410693747274991</v>
+        <v>1.378553937137156</v>
       </c>
       <c r="C4">
-        <v>0.9376654355628204</v>
+        <v>0.5422353028174598</v>
       </c>
       <c r="D4">
-        <v>0.01248115411603301</v>
+        <v>0.05550901246319384</v>
       </c>
       <c r="E4">
-        <v>0.03495296441428053</v>
+        <v>0.09246258146399988</v>
       </c>
       <c r="F4">
-        <v>1.865730764069156</v>
+        <v>2.66792642449731</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.8010665120326621</v>
+        <v>1.257205323389144</v>
       </c>
       <c r="J4">
-        <v>0.06803911908373195</v>
+        <v>0.1483581731651604</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6608910025499881</v>
+        <v>0.5335595744811528</v>
       </c>
       <c r="N4">
-        <v>0.9699161336161133</v>
+        <v>1.832670823019775</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.30986772215789</v>
+        <v>1.353455744878147</v>
       </c>
       <c r="C5">
-        <v>0.8986557099936476</v>
+        <v>0.5327527696101697</v>
       </c>
       <c r="D5">
-        <v>0.01227184093750466</v>
+        <v>0.05547234174530224</v>
       </c>
       <c r="E5">
-        <v>0.03461138926034479</v>
+        <v>0.09250588172466578</v>
       </c>
       <c r="F5">
-        <v>1.825203266126891</v>
+        <v>2.662933025250439</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.7893445869595297</v>
+        <v>1.256700839107523</v>
       </c>
       <c r="J5">
-        <v>0.06743846705371581</v>
+        <v>0.1484599138987512</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6350662314057871</v>
+        <v>0.527693066422529</v>
       </c>
       <c r="N5">
-        <v>0.9839596412383855</v>
+        <v>1.838153240818649</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.293170707921547</v>
+        <v>1.34930073989301</v>
       </c>
       <c r="C6">
-        <v>0.8922001472469105</v>
+        <v>0.5311835864488614</v>
       </c>
       <c r="D6">
-        <v>0.01223719937721413</v>
+        <v>0.05546631106280842</v>
       </c>
       <c r="E6">
-        <v>0.03455528451547352</v>
+        <v>0.09251351140551911</v>
       </c>
       <c r="F6">
-        <v>1.818537754472175</v>
+        <v>2.66212843345734</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.7874277690121332</v>
+        <v>1.256628409596388</v>
       </c>
       <c r="J6">
-        <v>0.06734053228991144</v>
+        <v>0.1484777596384177</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6307922156038188</v>
+        <v>0.5267238951603375</v>
       </c>
       <c r="N6">
-        <v>0.9863151641245835</v>
+        <v>1.83907362424122</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.409330874912655</v>
+        <v>1.378214613528428</v>
       </c>
       <c r="C7">
-        <v>0.9371378280933698</v>
+        <v>0.5421070566614219</v>
       </c>
       <c r="D7">
-        <v>0.01247832332136944</v>
+        <v>0.05550851399221202</v>
       </c>
       <c r="E7">
-        <v>0.03494831630439243</v>
+        <v>0.09246313595635058</v>
       </c>
       <c r="F7">
-        <v>1.865179836673192</v>
+        <v>2.66785743452489</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.8009064141196234</v>
+        <v>1.257197759114923</v>
       </c>
       <c r="J7">
-        <v>0.06803089626042436</v>
+        <v>0.1483594814622897</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6605417500018191</v>
+        <v>0.5334801241830291</v>
       </c>
       <c r="N7">
-        <v>0.9701039353767449</v>
+        <v>1.832744088081487</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.92932620612828</v>
+        <v>1.507633062785487</v>
       </c>
       <c r="C8">
-        <v>1.139033887632593</v>
+        <v>0.5910974175969841</v>
       </c>
       <c r="D8">
-        <v>0.01356168910447764</v>
+        <v>0.05570320845572496</v>
       </c>
       <c r="E8">
-        <v>0.03677609763197154</v>
+        <v>0.09230467650261609</v>
       </c>
       <c r="F8">
-        <v>2.081050171491583</v>
+        <v>2.696718020902367</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.8649985266740572</v>
+        <v>1.261363300069355</v>
       </c>
       <c r="J8">
-        <v>0.0713545467752752</v>
+        <v>0.1479759872091222</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7941143376956816</v>
+        <v>0.5640162006656908</v>
       </c>
       <c r="N8">
-        <v>0.9021248457796602</v>
+        <v>1.806273922297621</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.984891383396246</v>
+        <v>1.768070890135675</v>
       </c>
       <c r="C9">
-        <v>1.552229752372227</v>
+        <v>0.6900508364707889</v>
       </c>
       <c r="D9">
-        <v>0.01578579959230453</v>
+        <v>0.05611512934374829</v>
       </c>
       <c r="E9">
-        <v>0.04074176179578615</v>
+        <v>0.09222271856961406</v>
       </c>
       <c r="F9">
-        <v>2.548454252469142</v>
+        <v>2.766284719212024</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.010618395171477</v>
+        <v>1.275522736755136</v>
       </c>
       <c r="J9">
-        <v>0.07903139995608655</v>
+        <v>0.1477226294619527</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.066835721711989</v>
+        <v>0.6265138492158542</v>
       </c>
       <c r="N9">
-        <v>0.782956227725407</v>
+        <v>1.759639107451903</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.792356334039994</v>
+        <v>1.963570924416956</v>
       </c>
       <c r="C10">
-        <v>1.871104306710492</v>
+        <v>0.7645703173393485</v>
       </c>
       <c r="D10">
-        <v>0.01751551009874497</v>
+        <v>0.05643595357482489</v>
       </c>
       <c r="E10">
-        <v>0.04393738656257895</v>
+        <v>0.09230151436973522</v>
       </c>
       <c r="F10">
-        <v>2.927389678529806</v>
+        <v>2.825413979438821</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.133398651724605</v>
+        <v>1.289627965807</v>
       </c>
       <c r="J10">
-        <v>0.08555461940585474</v>
+        <v>0.1478417792982327</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.276549944048966</v>
+        <v>0.6740526506733602</v>
       </c>
       <c r="N10">
-        <v>0.7054846014100704</v>
+        <v>1.728611143821013</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.169233825787671</v>
+        <v>2.053435510818019</v>
       </c>
       <c r="C11">
-        <v>2.02072876233666</v>
+        <v>0.7988797615585668</v>
       </c>
       <c r="D11">
-        <v>0.0183327779389586</v>
+        <v>0.05658582421271241</v>
       </c>
       <c r="E11">
-        <v>0.04546512829961102</v>
+        <v>0.09236745904882504</v>
       </c>
       <c r="F11">
-        <v>3.109732262487086</v>
+        <v>2.854079502260191</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.193625217985428</v>
+        <v>1.296859878005179</v>
       </c>
       <c r="J11">
-        <v>0.08875937825995095</v>
+        <v>0.1479625768201487</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.374699525417412</v>
+        <v>0.6960376782652986</v>
       </c>
       <c r="N11">
-        <v>0.6728101840166048</v>
+        <v>1.715202477115582</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.313572526972223</v>
+        <v>2.087600248394892</v>
       </c>
       <c r="C12">
-        <v>2.078164204573341</v>
+        <v>0.8119317994283506</v>
       </c>
       <c r="D12">
-        <v>0.0186476046294981</v>
+        <v>0.05664313792930287</v>
       </c>
       <c r="E12">
-        <v>0.04605550831969829</v>
+        <v>0.09239675067127529</v>
       </c>
       <c r="F12">
-        <v>3.180429775907839</v>
+        <v>2.865190407876611</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.217151400885697</v>
+        <v>1.299716532482719</v>
       </c>
       <c r="J12">
-        <v>0.09001144047773835</v>
+        <v>0.1480179187246904</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.412330488220874</v>
+        <v>0.704414916922417</v>
       </c>
       <c r="N12">
-        <v>0.6608437513103453</v>
+        <v>1.710226916638547</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.282410076142412</v>
+        <v>2.080236239506689</v>
       </c>
       <c r="C13">
-        <v>2.065757868075082</v>
+        <v>0.8091181369487686</v>
       </c>
       <c r="D13">
-        <v>0.01857954602197331</v>
+        <v>0.05663076950060209</v>
       </c>
       <c r="E13">
-        <v>0.04592781107599819</v>
+        <v>0.0923902502052254</v>
       </c>
       <c r="F13">
-        <v>3.165126739966638</v>
+        <v>2.86278606633897</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.212051028268931</v>
+        <v>1.299096035459627</v>
       </c>
       <c r="J13">
-        <v>0.08973999888526407</v>
+        <v>0.1480055725994731</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.404204167087912</v>
+        <v>0.702608411625917</v>
       </c>
       <c r="N13">
-        <v>0.6634021987112746</v>
+        <v>1.711293948037358</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.181074575935327</v>
+        <v>2.056243552686794</v>
       </c>
       <c r="C14">
-        <v>2.025437718146179</v>
+        <v>0.7999523574416685</v>
       </c>
       <c r="D14">
-        <v>0.01835856561844551</v>
+        <v>0.056590528223742</v>
       </c>
       <c r="E14">
-        <v>0.04551345407987206</v>
+        <v>0.09236978236098814</v>
       </c>
       <c r="F14">
-        <v>3.115514213996448</v>
+        <v>2.854988464500764</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.195545743084679</v>
+        <v>1.297092525230767</v>
       </c>
       <c r="J14">
-        <v>0.08886158771068153</v>
+        <v>0.1479669373343313</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.377785725883953</v>
+        <v>0.6967258350692163</v>
       </c>
       <c r="N14">
-        <v>0.6718173154957441</v>
+        <v>1.714791087578973</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.119223031094521</v>
+        <v>2.041564950718509</v>
       </c>
       <c r="C15">
-        <v>2.000845328888317</v>
+        <v>0.7943458645093529</v>
       </c>
       <c r="D15">
-        <v>0.01822393657698029</v>
+        <v>0.05656595223157623</v>
       </c>
       <c r="E15">
-        <v>0.04526123125832981</v>
+        <v>0.09235780753241407</v>
       </c>
       <c r="F15">
-        <v>3.085346671781679</v>
+        <v>2.85024558576265</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.185532410216624</v>
+        <v>1.295880720710855</v>
       </c>
       <c r="J15">
-        <v>0.08832868738239341</v>
+        <v>0.1479445227965286</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.361666264066059</v>
+        <v>0.6931293664170823</v>
       </c>
       <c r="N15">
-        <v>0.6770259751798307</v>
+        <v>1.716946485492137</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.767939365495238</v>
+        <v>1.957716886245862</v>
       </c>
       <c r="C16">
-        <v>1.861427714670697</v>
+        <v>0.7623364372832953</v>
       </c>
       <c r="D16">
-        <v>0.0174627910084677</v>
+        <v>0.05642623786400236</v>
       </c>
       <c r="E16">
-        <v>0.04383913487776958</v>
+        <v>0.09229780968316348</v>
       </c>
       <c r="F16">
-        <v>2.915691427692508</v>
+        <v>2.823576332608724</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.129558194329746</v>
+        <v>1.289171821980219</v>
       </c>
       <c r="J16">
-        <v>0.08535031643430102</v>
+        <v>0.1478352268465031</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.270196613066503</v>
+        <v>0.6726231351886724</v>
       </c>
       <c r="N16">
-        <v>0.7076747056390289</v>
+        <v>1.729501680687221</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.555053165388244</v>
+        <v>1.906517977226088</v>
       </c>
       <c r="C17">
-        <v>1.777149012839857</v>
+        <v>0.7428053174047022</v>
       </c>
       <c r="D17">
-        <v>0.01700428272335763</v>
+        <v>0.05634153052908175</v>
       </c>
       <c r="E17">
-        <v>0.04298650144010097</v>
+        <v>0.09226870612542548</v>
       </c>
       <c r="F17">
-        <v>2.81430979708361</v>
+        <v>2.807669504100261</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.09640081249826</v>
+        <v>1.285265558106985</v>
       </c>
       <c r="J17">
-        <v>0.0835868943737097</v>
+        <v>0.1477852495935608</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.214833089998294</v>
+        <v>0.6601354893806928</v>
       </c>
       <c r="N17">
-        <v>0.7271594468456826</v>
+        <v>1.73738507168401</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.433489543827761</v>
+        <v>1.877157244714056</v>
       </c>
       <c r="C18">
-        <v>1.729095956046081</v>
+        <v>0.7316100901893492</v>
       </c>
       <c r="D18">
-        <v>0.0167433563783046</v>
+        <v>0.05629317884962504</v>
       </c>
       <c r="E18">
-        <v>0.04250297684885318</v>
+        <v>0.09225480018508314</v>
       </c>
       <c r="F18">
-        <v>2.756921036909148</v>
+        <v>2.798686559564374</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.077735089510441</v>
+        <v>1.283095474487169</v>
       </c>
       <c r="J18">
-        <v>0.08259466521569436</v>
+        <v>0.1477627709346407</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.183243657328575</v>
+        <v>0.6529867342390645</v>
       </c>
       <c r="N18">
-        <v>0.7386057316210994</v>
+        <v>1.741985823285212</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.392474768480895</v>
+        <v>1.867231203497795</v>
       </c>
       <c r="C19">
-        <v>1.712895093021643</v>
+        <v>0.7278261761078966</v>
       </c>
       <c r="D19">
-        <v>0.01665546438663057</v>
+        <v>0.05627687141957693</v>
       </c>
       <c r="E19">
-        <v>0.04234041224928653</v>
+        <v>0.09225057882082588</v>
       </c>
       <c r="F19">
-        <v>2.737642649769867</v>
+        <v>2.795673588156546</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.071482271967611</v>
+        <v>1.282373868761439</v>
       </c>
       <c r="J19">
-        <v>0.08226237575961193</v>
+        <v>0.1477562357357485</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.172589736443683</v>
+        <v>0.6505720860365045</v>
       </c>
       <c r="N19">
-        <v>0.7425212670362384</v>
+        <v>1.743554954474568</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.577622189954923</v>
+        <v>1.911959121727477</v>
       </c>
       <c r="C20">
-        <v>1.786076155436831</v>
+        <v>0.7448804421615591</v>
       </c>
       <c r="D20">
-        <v>0.01705279588051845</v>
+        <v>0.05635050952986909</v>
       </c>
       <c r="E20">
-        <v>0.04307654459934973</v>
+        <v>0.0922715110392236</v>
       </c>
       <c r="F20">
-        <v>2.825005018360116</v>
+        <v>2.809345595062553</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.099887882419111</v>
+        <v>1.285673442793879</v>
       </c>
       <c r="J20">
-        <v>0.08377230232072463</v>
+        <v>0.1477899209954643</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.22069985543888</v>
+        <v>0.6614613193624592</v>
       </c>
       <c r="N20">
-        <v>0.7250602540471078</v>
+        <v>1.736538992232219</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.210793058276749</v>
+        <v>2.063287114089405</v>
       </c>
       <c r="C21">
-        <v>2.037258632732915</v>
+        <v>0.8026429396424533</v>
       </c>
       <c r="D21">
-        <v>0.0184233192582326</v>
+        <v>0.05660233286550209</v>
       </c>
       <c r="E21">
-        <v>0.0456348285314867</v>
+        <v>0.09237567709154781</v>
       </c>
       <c r="F21">
-        <v>3.130040014887413</v>
+        <v>2.857271850155485</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.200373427743884</v>
+        <v>1.297677793196911</v>
       </c>
       <c r="J21">
-        <v>0.08911851609492061</v>
+        <v>0.1479780247680793</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.385532281927382</v>
+        <v>0.6984522770304125</v>
       </c>
       <c r="N21">
-        <v>0.6693342310705006</v>
+        <v>1.713761120573537</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.634210140980315</v>
+        <v>2.162975963051792</v>
       </c>
       <c r="C22">
-        <v>2.206011391627612</v>
+        <v>0.8407429971734928</v>
       </c>
       <c r="D22">
-        <v>0.01935077224369408</v>
+        <v>0.05677018220914931</v>
       </c>
       <c r="E22">
-        <v>0.04737660959059475</v>
+        <v>0.09246893097948039</v>
       </c>
       <c r="F22">
-        <v>3.339128081099886</v>
+        <v>2.890086810185494</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.270292949307162</v>
+        <v>1.306212023884939</v>
       </c>
       <c r="J22">
-        <v>0.09283938639557476</v>
+        <v>0.1481569196572039</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.496002234239072</v>
+        <v>0.7229311685456423</v>
       </c>
       <c r="N22">
-        <v>0.6353056636876033</v>
+        <v>1.699469285952233</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.407254380626</v>
+        <v>2.109697727189882</v>
       </c>
       <c r="C23">
-        <v>2.115480953180793</v>
+        <v>0.8203760790838146</v>
       </c>
       <c r="D23">
-        <v>0.01885250163655883</v>
+        <v>0.05668029992596857</v>
       </c>
       <c r="E23">
-        <v>0.04644015940397672</v>
+        <v>0.0924168588307559</v>
       </c>
       <c r="F23">
-        <v>3.226564337298669</v>
+        <v>2.872435708274963</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.23255368171769</v>
+        <v>1.30159384935402</v>
       </c>
       <c r="J23">
-        <v>0.09083113589097991</v>
+        <v>0.1480563124134449</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.436766280422248</v>
+        <v>0.7098384803820181</v>
       </c>
       <c r="N23">
-        <v>0.6532347543870358</v>
+        <v>1.707042522424757</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.567416174877451</v>
+        <v>1.909498949260808</v>
       </c>
       <c r="C24">
-        <v>1.78203895748544</v>
+        <v>0.7439421740572243</v>
       </c>
       <c r="D24">
-        <v>0.0170308548177438</v>
+        <v>0.05634644904063713</v>
       </c>
       <c r="E24">
-        <v>0.04303581541422297</v>
+        <v>0.092270234134471</v>
       </c>
       <c r="F24">
-        <v>2.820166931131212</v>
+        <v>2.808587329555877</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.098310148566966</v>
+        <v>1.285488802465267</v>
       </c>
       <c r="J24">
-        <v>0.08368841247551728</v>
+        <v>0.1477877895769453</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.218046748931002</v>
+        <v>0.6608618164668059</v>
       </c>
       <c r="N24">
-        <v>0.7260085410993966</v>
+        <v>1.736921291472257</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.694523153900207</v>
+        <v>1.696893226698364</v>
       </c>
       <c r="C25">
-        <v>1.438141418887483</v>
+        <v>0.6629664119413974</v>
       </c>
       <c r="D25">
-        <v>0.01517017683307031</v>
+        <v>0.05600048829814774</v>
       </c>
       <c r="E25">
-        <v>0.03962333062151835</v>
+        <v>0.09222044641369465</v>
       </c>
       <c r="F25">
-        <v>2.416455938312524</v>
+        <v>2.746065047833255</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.9687396773922927</v>
+        <v>1.271045733094752</v>
       </c>
       <c r="J25">
-        <v>0.07681350442354784</v>
+        <v>0.1477376524002736</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9916357801926168</v>
+        <v>0.6093237394563076</v>
       </c>
       <c r="N25">
-        <v>0.8135405307368018</v>
+        <v>1.771688500391377</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_85/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_85/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.543145160119082</v>
+        <v>3.07231028519567</v>
       </c>
       <c r="C2">
-        <v>0.6045642687506074</v>
+        <v>1.194749013064722</v>
       </c>
       <c r="D2">
-        <v>0.05575800697469191</v>
+        <v>0.0138608573951835</v>
       </c>
       <c r="E2">
-        <v>0.09227724228551359</v>
+        <v>0.0372954926719391</v>
       </c>
       <c r="F2">
-        <v>2.705411538345544</v>
+        <v>2.142235885727118</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>1.262895537521509</v>
+        <v>0.8835924950720653</v>
       </c>
       <c r="J2">
-        <v>0.1479057805073616</v>
+        <v>0.07232766579160099</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5724660458667543</v>
+        <v>0.8309436665952816</v>
       </c>
       <c r="N2">
-        <v>1.799457959988786</v>
+        <v>0.8846143727883202</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.440653581443883</v>
+        <v>2.660089617366168</v>
       </c>
       <c r="C3">
-        <v>0.565724447271748</v>
+        <v>1.034353258451063</v>
       </c>
       <c r="D3">
-        <v>0.05560136927945081</v>
+        <v>0.01299990138816476</v>
       </c>
       <c r="E3">
-        <v>0.0923741770050075</v>
+        <v>0.03581680997870507</v>
       </c>
       <c r="F3">
-        <v>2.681179437664213</v>
+        <v>1.967909404029413</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.258904852297867</v>
+        <v>0.8310863904842734</v>
       </c>
       <c r="J3">
-        <v>0.148147194015344</v>
+        <v>0.06958888804860308</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5481573466469456</v>
+        <v>0.7248785813616507</v>
       </c>
       <c r="N3">
-        <v>1.819625327823573</v>
+        <v>0.9364346063926945</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.378553937137156</v>
+        <v>2.410693747274991</v>
       </c>
       <c r="C4">
-        <v>0.5422353028174598</v>
+        <v>0.9376654355627068</v>
       </c>
       <c r="D4">
-        <v>0.05550901246319384</v>
+        <v>0.01248115411610407</v>
       </c>
       <c r="E4">
-        <v>0.09246258146399988</v>
+        <v>0.03495296441430362</v>
       </c>
       <c r="F4">
-        <v>2.66792642449731</v>
+        <v>1.865730764069156</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.257205323389144</v>
+        <v>0.8010665120326479</v>
       </c>
       <c r="J4">
-        <v>0.1483581731651604</v>
+        <v>0.06803911908369997</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5335595744811528</v>
+        <v>0.6608910025499739</v>
       </c>
       <c r="N4">
-        <v>1.832670823019775</v>
+        <v>0.9699161336160849</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.353455744878147</v>
+        <v>2.309867722158003</v>
       </c>
       <c r="C5">
-        <v>0.5327527696101697</v>
+        <v>0.8986557099938466</v>
       </c>
       <c r="D5">
-        <v>0.05547234174530224</v>
+        <v>0.01227184093749578</v>
       </c>
       <c r="E5">
-        <v>0.09250588172466578</v>
+        <v>0.03461138926036789</v>
       </c>
       <c r="F5">
-        <v>2.662933025250439</v>
+        <v>1.825203266126877</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.256700839107523</v>
+        <v>0.7893445869595226</v>
       </c>
       <c r="J5">
-        <v>0.1484599138987512</v>
+        <v>0.06743846705381529</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.527693066422529</v>
+        <v>0.6350662314057871</v>
       </c>
       <c r="N5">
-        <v>1.838153240818649</v>
+        <v>0.9839596412383074</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.34930073989301</v>
+        <v>2.293170707921661</v>
       </c>
       <c r="C6">
-        <v>0.5311835864488614</v>
+        <v>0.8922001472467684</v>
       </c>
       <c r="D6">
-        <v>0.05546631106280842</v>
+        <v>0.01223719937729228</v>
       </c>
       <c r="E6">
-        <v>0.09251351140551911</v>
+        <v>0.03455528451545753</v>
       </c>
       <c r="F6">
-        <v>2.66212843345734</v>
+        <v>1.81853775447216</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.256628409596388</v>
+        <v>0.7874277690121332</v>
       </c>
       <c r="J6">
-        <v>0.1484777596384177</v>
+        <v>0.06734053228990078</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5267238951603375</v>
+        <v>0.6307922156038188</v>
       </c>
       <c r="N6">
-        <v>1.83907362424122</v>
+        <v>0.9863151641245764</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.378214613528428</v>
+        <v>2.409330874912712</v>
       </c>
       <c r="C7">
-        <v>0.5421070566614219</v>
+        <v>0.9371378280930003</v>
       </c>
       <c r="D7">
-        <v>0.05550851399221202</v>
+        <v>0.01247832332124688</v>
       </c>
       <c r="E7">
-        <v>0.09246313595635058</v>
+        <v>0.03494831630438711</v>
       </c>
       <c r="F7">
-        <v>2.66785743452489</v>
+        <v>1.865179836673207</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.257197759114923</v>
+        <v>0.8009064141196376</v>
       </c>
       <c r="J7">
-        <v>0.1483594814622897</v>
+        <v>0.06803089626046699</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5334801241830291</v>
+        <v>0.6605417500018333</v>
       </c>
       <c r="N7">
-        <v>1.832744088081487</v>
+        <v>0.9701039353767449</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.507633062785487</v>
+        <v>2.929326206128337</v>
       </c>
       <c r="C8">
-        <v>0.5910974175969841</v>
+        <v>1.139033887632593</v>
       </c>
       <c r="D8">
-        <v>0.05570320845572496</v>
+        <v>0.01356168910446875</v>
       </c>
       <c r="E8">
-        <v>0.09230467650261609</v>
+        <v>0.03677609763199108</v>
       </c>
       <c r="F8">
-        <v>2.696718020902367</v>
+        <v>2.081050171491583</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.261363300069355</v>
+        <v>0.8649985266740643</v>
       </c>
       <c r="J8">
-        <v>0.1479759872091222</v>
+        <v>0.07135454677532138</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5640162006656908</v>
+        <v>0.7941143376956461</v>
       </c>
       <c r="N8">
-        <v>1.806273922297621</v>
+        <v>0.90212484577971</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.768070890135675</v>
+        <v>3.984891383396246</v>
       </c>
       <c r="C9">
-        <v>0.6900508364707889</v>
+        <v>1.55222975237217</v>
       </c>
       <c r="D9">
-        <v>0.05611512934374829</v>
+        <v>0.01578579959241821</v>
       </c>
       <c r="E9">
-        <v>0.09222271856961406</v>
+        <v>0.04074176179576838</v>
       </c>
       <c r="F9">
-        <v>2.766284719212024</v>
+        <v>2.548454252469142</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.275522736755136</v>
+        <v>1.010618395171491</v>
       </c>
       <c r="J9">
-        <v>0.1477226294619527</v>
+        <v>0.07903139995613628</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6265138492158542</v>
+        <v>1.066835721711989</v>
       </c>
       <c r="N9">
-        <v>1.759639107451903</v>
+        <v>0.7829562277254567</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.963570924416956</v>
+        <v>4.792356334039994</v>
       </c>
       <c r="C10">
-        <v>0.7645703173393485</v>
+        <v>1.871104306710549</v>
       </c>
       <c r="D10">
-        <v>0.05643595357482489</v>
+        <v>0.017515510098848</v>
       </c>
       <c r="E10">
-        <v>0.09230151436973522</v>
+        <v>0.0439373865625754</v>
       </c>
       <c r="F10">
-        <v>2.825413979438821</v>
+        <v>2.927389678529835</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.289627965807</v>
+        <v>1.133398651724605</v>
       </c>
       <c r="J10">
-        <v>0.1478417792982327</v>
+        <v>0.08555461940590448</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6740526506733602</v>
+        <v>1.276549944049009</v>
       </c>
       <c r="N10">
-        <v>1.728611143821013</v>
+        <v>0.705484601410113</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.053435510818019</v>
+        <v>5.169233825787614</v>
       </c>
       <c r="C11">
-        <v>0.7988797615585668</v>
+        <v>2.020728762336319</v>
       </c>
       <c r="D11">
-        <v>0.05658582421271241</v>
+        <v>0.018332777938598</v>
       </c>
       <c r="E11">
-        <v>0.09236745904882504</v>
+        <v>0.04546512829959859</v>
       </c>
       <c r="F11">
-        <v>2.854079502260191</v>
+        <v>3.109732262487086</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.296859878005179</v>
+        <v>1.193625217985428</v>
       </c>
       <c r="J11">
-        <v>0.1479625768201487</v>
+        <v>0.08875937825997937</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6960376782652986</v>
+        <v>1.374699525417427</v>
       </c>
       <c r="N11">
-        <v>1.715202477115582</v>
+        <v>0.6728101840165337</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.087600248394892</v>
+        <v>5.313572526972166</v>
       </c>
       <c r="C12">
-        <v>0.8119317994283506</v>
+        <v>2.078164204573113</v>
       </c>
       <c r="D12">
-        <v>0.05664313792930287</v>
+        <v>0.01864760462950521</v>
       </c>
       <c r="E12">
-        <v>0.09239675067127529</v>
+        <v>0.04605550831973559</v>
       </c>
       <c r="F12">
-        <v>2.865190407876611</v>
+        <v>3.180429775907811</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>1.299716532482719</v>
+        <v>1.217151400885683</v>
       </c>
       <c r="J12">
-        <v>0.1480179187246904</v>
+        <v>0.09001144047775256</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.704414916922417</v>
+        <v>1.41233048822086</v>
       </c>
       <c r="N12">
-        <v>1.710226916638547</v>
+        <v>0.6608437513103524</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.080236239506689</v>
+        <v>5.282410076142526</v>
       </c>
       <c r="C13">
-        <v>0.8091181369487686</v>
+        <v>2.065757868075309</v>
       </c>
       <c r="D13">
-        <v>0.05663076950060209</v>
+        <v>0.01857954602186673</v>
       </c>
       <c r="E13">
-        <v>0.0923902502052254</v>
+        <v>0.04592781107605681</v>
       </c>
       <c r="F13">
-        <v>2.86278606633897</v>
+        <v>3.165126739966666</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.299096035459627</v>
+        <v>1.212051028268917</v>
       </c>
       <c r="J13">
-        <v>0.1480055725994731</v>
+        <v>0.08973999888523565</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.702608411625917</v>
+        <v>1.404204167087912</v>
       </c>
       <c r="N13">
-        <v>1.711293948037358</v>
+        <v>0.6634021987112533</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.056243552686794</v>
+        <v>5.181074575935384</v>
       </c>
       <c r="C14">
-        <v>0.7999523574416685</v>
+        <v>2.025437718146406</v>
       </c>
       <c r="D14">
-        <v>0.056590528223742</v>
+        <v>0.01835856561865512</v>
       </c>
       <c r="E14">
-        <v>0.09236978236098814</v>
+        <v>0.04551345407986496</v>
       </c>
       <c r="F14">
-        <v>2.854988464500764</v>
+        <v>3.115514213996448</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.297092525230767</v>
+        <v>1.195545743084722</v>
       </c>
       <c r="J14">
-        <v>0.1479669373343313</v>
+        <v>0.08886158771064601</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6967258350692163</v>
+        <v>1.377785725883939</v>
       </c>
       <c r="N14">
-        <v>1.714791087578973</v>
+        <v>0.6718173154957441</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.041564950718509</v>
+        <v>5.119223031094464</v>
       </c>
       <c r="C15">
-        <v>0.7943458645093529</v>
+        <v>2.00084532888792</v>
       </c>
       <c r="D15">
-        <v>0.05656595223157623</v>
+        <v>0.01822393657685595</v>
       </c>
       <c r="E15">
-        <v>0.09235780753241407</v>
+        <v>0.04526123125832626</v>
       </c>
       <c r="F15">
-        <v>2.85024558576265</v>
+        <v>3.085346671781707</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.295880720710855</v>
+        <v>1.185532410216624</v>
       </c>
       <c r="J15">
-        <v>0.1479445227965286</v>
+        <v>0.08832868738244315</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6931293664170823</v>
+        <v>1.361666264066045</v>
       </c>
       <c r="N15">
-        <v>1.716946485492137</v>
+        <v>0.6770259751798235</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.957716886245862</v>
+        <v>4.767939365495067</v>
       </c>
       <c r="C16">
-        <v>0.7623364372832953</v>
+        <v>1.861427714670526</v>
       </c>
       <c r="D16">
-        <v>0.05642623786400236</v>
+        <v>0.01746279100856896</v>
       </c>
       <c r="E16">
-        <v>0.09229780968316348</v>
+        <v>0.04383913487776603</v>
       </c>
       <c r="F16">
-        <v>2.823576332608724</v>
+        <v>2.915691427692536</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.289171821980219</v>
+        <v>1.129558194329761</v>
       </c>
       <c r="J16">
-        <v>0.1478352268465031</v>
+        <v>0.0853503164344076</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6726231351886724</v>
+        <v>1.270196613066489</v>
       </c>
       <c r="N16">
-        <v>1.729501680687221</v>
+        <v>0.7076747056390218</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.906517977226088</v>
+        <v>4.555053165388358</v>
       </c>
       <c r="C17">
-        <v>0.7428053174047022</v>
+        <v>1.777149012840027</v>
       </c>
       <c r="D17">
-        <v>0.05634153052908175</v>
+        <v>0.01700428272334698</v>
       </c>
       <c r="E17">
-        <v>0.09226870612542548</v>
+        <v>0.04298650144012228</v>
       </c>
       <c r="F17">
-        <v>2.807669504100261</v>
+        <v>2.814309797083666</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.285265558106985</v>
+        <v>1.09640081249826</v>
       </c>
       <c r="J17">
-        <v>0.1477852495935608</v>
+        <v>0.08358689437355338</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6601354893806928</v>
+        <v>1.214833089998322</v>
       </c>
       <c r="N17">
-        <v>1.73738507168401</v>
+        <v>0.7271594468456755</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.877157244714056</v>
+        <v>4.433489543827761</v>
       </c>
       <c r="C18">
-        <v>0.7316100901893492</v>
+        <v>1.72909595604591</v>
       </c>
       <c r="D18">
-        <v>0.05629317884962504</v>
+        <v>0.01674335637840585</v>
       </c>
       <c r="E18">
-        <v>0.09225480018508314</v>
+        <v>0.04250297684887627</v>
       </c>
       <c r="F18">
-        <v>2.798686559564374</v>
+        <v>2.756921036909148</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.283095474487169</v>
+        <v>1.077735089510441</v>
       </c>
       <c r="J18">
-        <v>0.1477627709346407</v>
+        <v>0.08259466521577963</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6529867342390645</v>
+        <v>1.183243657328575</v>
       </c>
       <c r="N18">
-        <v>1.741985823285212</v>
+        <v>0.738605731621135</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.867231203497795</v>
+        <v>4.392474768480952</v>
       </c>
       <c r="C19">
-        <v>0.7278261761078966</v>
+        <v>1.712895093021643</v>
       </c>
       <c r="D19">
-        <v>0.05627687141957693</v>
+        <v>0.016655464386508</v>
       </c>
       <c r="E19">
-        <v>0.09225057882082588</v>
+        <v>0.04234041224922258</v>
       </c>
       <c r="F19">
-        <v>2.795673588156546</v>
+        <v>2.737642649769924</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.282373868761439</v>
+        <v>1.071482271967611</v>
       </c>
       <c r="J19">
-        <v>0.1477562357357485</v>
+        <v>0.08226237575960482</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6505720860365045</v>
+        <v>1.172589736443669</v>
       </c>
       <c r="N19">
-        <v>1.743554954474568</v>
+        <v>0.7425212670362882</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.911959121727477</v>
+        <v>4.577622189954923</v>
       </c>
       <c r="C20">
-        <v>0.7448804421615591</v>
+        <v>1.786076155436831</v>
       </c>
       <c r="D20">
-        <v>0.05635050952986909</v>
+        <v>0.01705279588063924</v>
       </c>
       <c r="E20">
-        <v>0.0922715110392236</v>
+        <v>0.04307654459932131</v>
       </c>
       <c r="F20">
-        <v>2.809345595062553</v>
+        <v>2.825005018360173</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.285673442793879</v>
+        <v>1.099887882419125</v>
       </c>
       <c r="J20">
-        <v>0.1477899209954643</v>
+        <v>0.083772302320682</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6614613193624592</v>
+        <v>1.22069985543888</v>
       </c>
       <c r="N20">
-        <v>1.736538992232219</v>
+        <v>0.7250602540471291</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.063287114089405</v>
+        <v>5.210793058276579</v>
       </c>
       <c r="C21">
-        <v>0.8026429396424533</v>
+        <v>2.037258632732403</v>
       </c>
       <c r="D21">
-        <v>0.05660233286550209</v>
+        <v>0.01842331925820773</v>
       </c>
       <c r="E21">
-        <v>0.09237567709154781</v>
+        <v>0.04563482853144052</v>
       </c>
       <c r="F21">
-        <v>2.857271850155485</v>
+        <v>3.130040014887442</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.297677793196911</v>
+        <v>1.200373427743912</v>
       </c>
       <c r="J21">
-        <v>0.1479780247680793</v>
+        <v>0.08911851609498456</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6984522770304125</v>
+        <v>1.385532281927397</v>
       </c>
       <c r="N21">
-        <v>1.713761120573537</v>
+        <v>0.6693342310704864</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.162975963051792</v>
+        <v>5.634210140980372</v>
       </c>
       <c r="C22">
-        <v>0.8407429971734928</v>
+        <v>2.206011391627328</v>
       </c>
       <c r="D22">
-        <v>0.05677018220914931</v>
+        <v>0.01935077224344539</v>
       </c>
       <c r="E22">
-        <v>0.09246893097948039</v>
+        <v>0.047376609590561</v>
       </c>
       <c r="F22">
-        <v>2.890086810185494</v>
+        <v>3.339128081099886</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.306212023884939</v>
+        <v>1.270292949307191</v>
       </c>
       <c r="J22">
-        <v>0.1481569196572039</v>
+        <v>0.09283938639543265</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7229311685456423</v>
+        <v>1.496002234239057</v>
       </c>
       <c r="N22">
-        <v>1.699469285952233</v>
+        <v>0.6353056636875962</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.109697727189882</v>
+        <v>5.407254380626114</v>
       </c>
       <c r="C23">
-        <v>0.8203760790838146</v>
+        <v>2.115480953181077</v>
       </c>
       <c r="D23">
-        <v>0.05668029992596857</v>
+        <v>0.01885250163640961</v>
       </c>
       <c r="E23">
-        <v>0.0924168588307559</v>
+        <v>0.04644015940403179</v>
       </c>
       <c r="F23">
-        <v>2.872435708274963</v>
+        <v>3.226564337298669</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.30159384935402</v>
+        <v>1.23255368171769</v>
       </c>
       <c r="J23">
-        <v>0.1480563124134449</v>
+        <v>0.09083113589089464</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7098384803820181</v>
+        <v>1.436766280422262</v>
       </c>
       <c r="N23">
-        <v>1.707042522424757</v>
+        <v>0.6532347543870145</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.909498949260808</v>
+        <v>4.567416174877621</v>
       </c>
       <c r="C24">
-        <v>0.7439421740572243</v>
+        <v>1.78203895748527</v>
       </c>
       <c r="D24">
-        <v>0.05634644904063713</v>
+        <v>0.01703085481773847</v>
       </c>
       <c r="E24">
-        <v>0.092270234134471</v>
+        <v>0.04303581541421586</v>
       </c>
       <c r="F24">
-        <v>2.808587329555877</v>
+        <v>2.820166931131212</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.285488802465267</v>
+        <v>1.098310148566952</v>
       </c>
       <c r="J24">
-        <v>0.1477877895769453</v>
+        <v>0.08368841247552439</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6608618164668059</v>
+        <v>1.218046748930973</v>
       </c>
       <c r="N24">
-        <v>1.736921291472257</v>
+        <v>0.7260085410994606</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.696893226698364</v>
+        <v>3.694523153900263</v>
       </c>
       <c r="C25">
-        <v>0.6629664119413974</v>
+        <v>1.438141418887483</v>
       </c>
       <c r="D25">
-        <v>0.05600048829814774</v>
+        <v>0.01517017683305788</v>
       </c>
       <c r="E25">
-        <v>0.09222044641369465</v>
+        <v>0.03962333062156098</v>
       </c>
       <c r="F25">
-        <v>2.746065047833255</v>
+        <v>2.416455938312552</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.271045733094752</v>
+        <v>0.9687396773922998</v>
       </c>
       <c r="J25">
-        <v>0.1477376524002736</v>
+        <v>0.07681350442353008</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6093237394563076</v>
+        <v>0.9916357801926452</v>
       </c>
       <c r="N25">
-        <v>1.771688500391377</v>
+        <v>0.8135405307367947</v>
       </c>
       <c r="O25">
         <v>0</v>
